--- a/xls/square_high_un_16_tri3_14.xlsx
+++ b/xls/square_high_un_16_tri3_14.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-1.8940091392283664</v>
+        <v>-2.202568929365783</v>
       </c>
       <c r="J14">
-        <v>-1.8578985123258867</v>
+        <v>-1.9251534322414539</v>
       </c>
       <c r="K14">
-        <v>-0.7567709813953281</v>
+        <v>-0.7012465180488647</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-2.1210699821135273</v>
+        <v>-1.95594639439537</v>
       </c>
       <c r="J15">
-        <v>-1.7597256907460213</v>
+        <v>-1.5770654820307919</v>
       </c>
       <c r="K15">
-        <v>-0.3954283073236452</v>
+        <v>-0.04650382517244616</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-1.932106847132187</v>
+        <v>-1.8801696954751332</v>
       </c>
       <c r="J16">
-        <v>-1.573758123348349</v>
+        <v>-1.60061284902057</v>
       </c>
       <c r="K16">
-        <v>-0.03811259298887191</v>
+        <v>-0.21028427966508384</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-1.334942769375261</v>
+        <v>-0.6496569207405954</v>
       </c>
       <c r="J17">
-        <v>-1.123055582212469</v>
+        <v>-0.5566642557222474</v>
       </c>
       <c r="K17">
-        <v>0.5452025800180661</v>
+        <v>1.4708991440167218</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.9408202100632326</v>
+        <v>-0.14731476127238113</v>
       </c>
       <c r="J18">
-        <v>-0.8266285829356432</v>
+        <v>-0.14021483665589507</v>
       </c>
       <c r="K18">
-        <v>1.0298130397625824</v>
+        <v>1.9689582483680241</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.2415584372704735</v>
+        <v>-1.6756596357592954e-5</v>
       </c>
       <c r="J19">
-        <v>-0.22148014807606947</v>
+        <v>-2.173416182551765e-5</v>
       </c>
       <c r="K19">
-        <v>1.7447728745181974</v>
+        <v>2.15848623440843</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.031034542299019207</v>
+        <v>-5.532630346493338e-7</v>
       </c>
       <c r="J20">
-        <v>-0.035626379613328554</v>
+        <v>-1.3163800924699064e-6</v>
       </c>
       <c r="K20">
-        <v>2.2603974589681872</v>
+        <v>1.6358437199197347</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>1.9536173533881496e-5</v>
+        <v>-7.318648972631654e-7</v>
       </c>
       <c r="J21">
-        <v>-3.440267070234637e-5</v>
+        <v>-9.809805368491308e-7</v>
       </c>
       <c r="K21">
-        <v>2.380901457872783</v>
+        <v>1.517681044951646</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-2.353428332796231e-6</v>
+        <v>-1.0461158869598502e-6</v>
       </c>
       <c r="J22">
-        <v>-5.201906757724471e-6</v>
+        <v>-9.571142078310444e-7</v>
       </c>
       <c r="K22">
-        <v>1.9244858970865935</v>
+        <v>1.4253591472313296</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-9.524446712701985e-7</v>
+        <v>-5.520831939700247e-7</v>
       </c>
       <c r="J23">
-        <v>-2.25208236200703e-6</v>
+        <v>-5.617783669488703e-7</v>
       </c>
       <c r="K23">
-        <v>1.753082603521938</v>
+        <v>1.3303198508931717</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-1.1530184558914405e-6</v>
+        <v>-7.040577447782096e-7</v>
       </c>
       <c r="J24">
-        <v>-1.754515596111728e-6</v>
+        <v>-6.316792408166865e-7</v>
       </c>
       <c r="K24">
-        <v>1.6609061131505256</v>
+        <v>1.3229918944195551</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-5.396104011696374e-7</v>
+        <v>-5.459778089531732e-7</v>
       </c>
       <c r="J25">
-        <v>-1.106850548760675e-6</v>
+        <v>-5.05790472483969e-7</v>
       </c>
       <c r="K25">
-        <v>1.5869773989488198</v>
+        <v>1.284574067261528</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-3.2130482413230054e-7</v>
+        <v>-5.314386594085309e-7</v>
       </c>
       <c r="J26">
-        <v>-7.791152885180675e-7</v>
+        <v>-4.826553185586037e-7</v>
       </c>
       <c r="K26">
-        <v>1.5226417082450212</v>
+        <v>1.268802970155096</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-5.350703618014232e-7</v>
+        <v>-5.026839145590417e-7</v>
       </c>
       <c r="J27">
-        <v>-7.739158192069767e-7</v>
+        <v>-4.635084302398308e-7</v>
       </c>
       <c r="K27">
-        <v>1.4691202620195942</v>
+        <v>1.2610871642168842</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-4.722659940272038e-7</v>
+        <v>-5.334589430677851e-7</v>
       </c>
       <c r="J28">
-        <v>-5.781207861833266e-7</v>
+        <v>-4.731543543822388e-7</v>
       </c>
       <c r="K28">
-        <v>1.3823958501994125</v>
+        <v>1.2548845056205775</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-5.178201150529026e-7</v>
+        <v>-4.7242259403493437e-7</v>
       </c>
       <c r="J29">
-        <v>-5.418089005678589e-7</v>
+        <v>-4.280056933959171e-7</v>
       </c>
       <c r="K29">
-        <v>1.3349080431036229</v>
+        <v>1.2418365769346102</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-5.044733471748e-7</v>
+        <v>-4.4500532713920645e-7</v>
       </c>
       <c r="J30">
-        <v>-4.921857350799486e-7</v>
+        <v>-3.98403182180043e-7</v>
       </c>
       <c r="K30">
-        <v>1.2948556025438707</v>
+        <v>1.2206523299888234</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-4.81132089696178e-7</v>
+        <v>-3.9933522091350206e-7</v>
       </c>
       <c r="J31">
-        <v>-4.619632011096867e-7</v>
+        <v>-3.650907606648989e-7</v>
       </c>
       <c r="K31">
-        <v>1.2737864979082367</v>
+        <v>1.2084427824440094</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-4.436966714218793e-7</v>
+        <v>-3.9640862694717784e-7</v>
       </c>
       <c r="J32">
-        <v>-4.251893822924573e-7</v>
+        <v>-3.6099637364007425e-7</v>
       </c>
       <c r="K32">
-        <v>1.2542352600592073</v>
+        <v>1.2046954682867088</v>
       </c>
     </row>
   </sheetData>
